--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1592.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1592.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.335928334541082</v>
+        <v>0.4154788255691528</v>
       </c>
       <c r="B1">
-        <v>3.349504387598763</v>
+        <v>0.8102923631668091</v>
       </c>
       <c r="C1">
-        <v>5.397528672297847</v>
+        <v>5.24896764755249</v>
       </c>
       <c r="D1">
-        <v>1.656526839656037</v>
+        <v>3.204691171646118</v>
       </c>
       <c r="E1">
-        <v>0.9093351389891906</v>
+        <v>1.9486323595047</v>
       </c>
     </row>
   </sheetData>
